--- a/datamining/final_data/topic5_candidates.xlsx
+++ b/datamining/final_data/topic5_candidates.xlsx
@@ -436,1007 +436,1007 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.66813</v>
+        <v>0.9513393333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04966</v>
+        <v>0.8942021666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.53112</v>
+        <v>0.8590146666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.10937</v>
+        <v>0.8508776666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04092</v>
+        <v>0.8129698333333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06924</v>
+        <v>0.7520773333333334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.37244</v>
+        <v>0.7459321666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.96316</v>
+        <v>0.6078253333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03252</v>
+        <v>0.526969</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05411</v>
+        <v>0.5181359999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.95198</v>
+        <v>0.4712261666666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.10133</v>
+        <v>0.458266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.14308</v>
+        <v>0.4471363333333334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.48557</v>
+        <v>0.4413896666666666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.24793</v>
+        <v>0.4173533333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03879</v>
+        <v>0.4145110000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.16339</v>
+        <v>0.3842736666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.92105</v>
+        <v>0.3688948333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.15741</v>
+        <v>0.3613121666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8501300000000001</v>
+        <v>0.3481216666666666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.11924</v>
+        <v>0.3480845</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.12918</v>
+        <v>0.3467138333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06815</v>
+        <v>0.3423351666666666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.08084</v>
+        <v>0.31148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.36699</v>
+        <v>0.3104823333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.26352</v>
+        <v>0.3104735</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.04379</v>
+        <v>0.3052495</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.20665</v>
+        <v>0.2919551666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8325</v>
+        <v>0.2751361666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3215</v>
+        <v>0.2685293333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.26377</v>
+        <v>0.2605476666666666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.50928</v>
+        <v>0.2594655</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.17365</v>
+        <v>0.2550565</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.43216</v>
+        <v>0.2540228333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.21079</v>
+        <v>0.238096</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0041</v>
+        <v>0.2358815</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.33527</v>
+        <v>0.2300798333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.05789</v>
+        <v>0.2285433333333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.23561</v>
+        <v>0.2254955</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01247</v>
+        <v>0.2252358333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.38166</v>
+        <v>0.223309</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.44289</v>
+        <v>0.2147711666666667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01745</v>
+        <v>0.2100221666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.29901</v>
+        <v>0.2096236666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.33459</v>
+        <v>0.2087408333333333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.39016</v>
+        <v>0.2003015</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.13114</v>
+        <v>0.1962201666666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.13173</v>
+        <v>0.1906606666666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.05614</v>
+        <v>0.1894701666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2533</v>
+        <v>0.1856335</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.31227</v>
+        <v>0.1833963333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.32255</v>
+        <v>0.182041</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.40571</v>
+        <v>0.1719163333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.08505</v>
+        <v>0.170144</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.11516</v>
+        <v>0.1676845</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.45652</v>
+        <v>0.1635451666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.29242</v>
+        <v>0.1590663333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.47819</v>
+        <v>0.1460286666666666</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.08817</v>
+        <v>0.1441428333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.06109</v>
+        <v>0.1423603333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.35034</v>
+        <v>0.1133961666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.33517</v>
+        <v>0.1092778333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02729</v>
+        <v>0.1010588333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.30746</v>
+        <v>0.1002086666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.09678</v>
+        <v>0.09716983333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.28491</v>
+        <v>0.08853116666666666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.18813</v>
+        <v>0.08407683333333334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.13129</v>
+        <v>0.08199833333333334</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.11661</v>
+        <v>0.07334666666666666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.19123</v>
+        <v>0.07312916666666668</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.04246</v>
+        <v>0.07173533333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.3565</v>
+        <v>0.07056866666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.95784</v>
+        <v>0.06947399999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.21261</v>
+        <v>0.06667000000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.14553</v>
+        <v>0.06410466666666666</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.19895</v>
+        <v>0.06228583333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.23845</v>
+        <v>0.06127633333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.58278</v>
+        <v>0.05985449999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.13788</v>
+        <v>0.0534765</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.19714</v>
+        <v>0.05007899999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.28774</v>
+        <v>0.04739233333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02258</v>
+        <v>0.04676600000000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.23383</v>
+        <v>0.03719933333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.12783</v>
+        <v>0.036188</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.25398</v>
+        <v>0.03442666666666667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.48865</v>
+        <v>0.03196666666666666</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.38016</v>
+        <v>0.02516833333333333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01764</v>
+        <v>0.0251035</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.08656</v>
+        <v>0.02389033333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.27548</v>
+        <v>0.01798016666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.49934</v>
+        <v>0.016728</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.33652</v>
+        <v>0.0166945</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.60991</v>
+        <v>0.01668216666666667</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.08074000000000001</v>
+        <v>0.01238816666666665</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.61872</v>
+        <v>0.002136833333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.04806</v>
+        <v>0.001995166666666659</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.54389</v>
+        <v>-0.0001968333333333336</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.29848</v>
+        <v>-0.001549333333333333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3638</v>
+        <v>-0.006400500000000007</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.16563</v>
+        <v>-0.0102235</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic5_candidates.xlsx
+++ b/datamining/final_data/topic5_candidates.xlsx
@@ -442,31 +442,31 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9513393333333334</v>
+        <v>0.9809051666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8942021666666667</v>
+        <v>0.8590908333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8590146666666667</v>
+        <v>0.8508776666666666</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -492,871 +492,871 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7520773333333334</v>
+        <v>0.7923535</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7459321666666667</v>
+        <v>0.751407</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('다는', '점', '의의')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6078253333333333</v>
+        <v>0.6497573333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.526969</v>
+        <v>0.6120831666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5181359999999999</v>
+        <v>0.607894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4712261666666666</v>
+        <v>0.584154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('예비', '교원', '의')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.458266</v>
+        <v>0.5481978333333334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('초점', '맞추', 'ㄴ')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4471363333333334</v>
+        <v>0.5233908333333332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4413896666666666</v>
+        <v>0.5191245</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4173533333333333</v>
+        <v>0.5109025</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('향상', '긍정', 'ㄴ')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4145110000000001</v>
+        <v>0.5054393333333334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('ㄴ', '기초', '자료')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3842736666666667</v>
+        <v>0.4552495</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3688948333333333</v>
+        <v>0.4261573333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3613121666666667</v>
+        <v>0.4146400000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3481216666666666</v>
+        <v>0.4049796666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3480845</v>
+        <v>0.3919530000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3467138333333333</v>
+        <v>0.3801851666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3423351666666666</v>
+        <v>0.379445</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('는', '영향', '분석')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.31148</v>
+        <v>0.353976</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3104823333333333</v>
+        <v>0.3505528333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('찾', '을', '수')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3104735</v>
+        <v>0.3406771666666666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3052495</v>
+        <v>0.3375558333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('중', '의', '하나')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2919551666666667</v>
+        <v>0.3353301666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2751361666666667</v>
+        <v>0.2980458333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2685293333333333</v>
+        <v>0.2978823333333334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2605476666666666</v>
+        <v>0.2883626666666667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2594655</v>
+        <v>0.2882921666666666</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('것', '알', 'ㄹ')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2550565</v>
+        <v>0.2846296666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2540228333333333</v>
+        <v>0.2807103333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.238096</v>
+        <v>0.2785371666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2358815</v>
+        <v>0.2752371666666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2300798333333333</v>
+        <v>0.2707123333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2285433333333333</v>
+        <v>0.268908</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2254955</v>
+        <v>0.2634568333333334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2252358333333333</v>
+        <v>0.2558396666666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.223309</v>
+        <v>0.2558396666666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2147711666666667</v>
+        <v>0.2542471666666667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2100221666666667</v>
+        <v>0.2510145</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2096236666666667</v>
+        <v>0.2383256666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2087408333333333</v>
+        <v>0.2360716666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2003015</v>
+        <v>0.2338861666666666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1962201666666667</v>
+        <v>0.2276456666666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('이', '같', '은')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1906606666666666</v>
+        <v>0.2162578333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1894701666666667</v>
+        <v>0.1995886666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1856335</v>
+        <v>0.1947573333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1833963333333333</v>
+        <v>0.1896173333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('는', '데', '있')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.182041</v>
+        <v>0.1881645</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1719163333333333</v>
+        <v>0.188083</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.170144</v>
+        <v>0.1835196666666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1676845</v>
+        <v>0.18161</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('수준', '맞', '는')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1635451666666667</v>
+        <v>0.1784491666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1590663333333333</v>
+        <v>0.1554191666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1460286666666666</v>
+        <v>0.1527816666666666</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1441428333333333</v>
+        <v>0.1481786666666667</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('기술', '의', '발달')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1423603333333333</v>
+        <v>0.1346788333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1133961666666667</v>
+        <v>0.1308565</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1092778333333333</v>
+        <v>0.1246443333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('학습자', '중심', '의')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1010588333333333</v>
+        <v>0.1214046666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('의', '자기', '주도')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1002086666666667</v>
+        <v>0.121232</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.09716983333333333</v>
+        <v>0.1145451666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.08853116666666666</v>
+        <v>0.1026613333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.08407683333333334</v>
+        <v>0.1019535</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.08199833333333334</v>
+        <v>0.1012923333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.07334666666666666</v>
+        <v>0.09807250000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.07312916666666668</v>
+        <v>0.09706900000000002</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.07173533333333333</v>
+        <v>0.09503150000000002</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.07056866666666667</v>
+        <v>0.09192683333333335</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.06947399999999999</v>
+        <v>0.08418699999999998</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.06667000000000001</v>
+        <v>0.08400249999999998</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.06410466666666666</v>
+        <v>0.08199833333333334</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.06228583333333333</v>
+        <v>0.07695066666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.06127633333333333</v>
+        <v>0.07295783333333335</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.05985449999999999</v>
+        <v>0.068579</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0534765</v>
+        <v>0.0627875</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.05007899999999999</v>
+        <v>0.06131166666666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.04739233333333333</v>
+        <v>0.04957016666666667</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.04676600000000001</v>
+        <v>0.04838033333333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.03719933333333333</v>
+        <v>0.04587716666666666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.036188</v>
+        <v>0.04285116666666665</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.03442666666666667</v>
+        <v>0.03831383333333334</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.03196666666666666</v>
+        <v>0.0379915</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02516833333333333</v>
+        <v>0.03719733333333334</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0251035</v>
+        <v>0.02745599999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02389033333333333</v>
+        <v>0.02697766666666667</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01798016666666667</v>
+        <v>0.02534783333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.016728</v>
+        <v>0.01798016666666667</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0166945</v>
+        <v>0.01675683333333333</v>
       </c>
     </row>
     <row r="94">
@@ -1366,77 +1366,77 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01668216666666667</v>
+        <v>0.01667133333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.01238816666666665</v>
+        <v>0.01393466666666666</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.002136833333333333</v>
+        <v>0.01387066666666667</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.001995166666666659</v>
+        <v>0.0105105</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.0001968333333333336</v>
+        <v>0.01006566666666667</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.001549333333333333</v>
+        <v>0.003699500000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.006400500000000007</v>
+        <v>-0.001978166666666666</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.0102235</v>
+        <v>-0.005321833333333333</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic5_candidates.xlsx
+++ b/datamining/final_data/topic5_candidates.xlsx
@@ -462,7 +462,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -512,37 +512,37 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6497573333333334</v>
+        <v>0.6120831666666666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6120831666666666</v>
+        <v>0.607894</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.607894</v>
+        <v>0.584154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -552,21 +552,21 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5481978333333334</v>
+        <v>0.5754031666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5233908333333332</v>
+        <v>0.5430886666666667</v>
       </c>
     </row>
     <row r="15">
@@ -582,31 +582,31 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5109025</v>
+        <v>0.5080825</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5054393333333334</v>
+        <v>0.4933718333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4552495</v>
+        <v>0.4490385</v>
       </c>
     </row>
     <row r="19">
@@ -632,7 +632,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -672,741 +672,741 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.353976</v>
+        <v>0.3769796666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3505528333333333</v>
+        <v>0.3538406666666666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3406771666666666</v>
+        <v>0.352441</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3375558333333333</v>
+        <v>0.2980931666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3353301666666667</v>
+        <v>0.2980458333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2980458333333333</v>
+        <v>0.293024</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2978823333333334</v>
+        <v>0.2883626666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2883626666666667</v>
+        <v>0.2882921666666666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2882921666666666</v>
+        <v>0.2859641666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2846296666666667</v>
+        <v>0.2785371666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2807103333333333</v>
+        <v>0.2764666666666666</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2785371666666667</v>
+        <v>0.2752371666666666</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2752371666666666</v>
+        <v>0.268908</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2707123333333333</v>
+        <v>0.2558396666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.268908</v>
+        <v>0.2558396666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2634568333333334</v>
+        <v>0.2542471666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2558396666666667</v>
+        <v>0.2510145</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2558396666666667</v>
+        <v>0.2383256666666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2542471666666667</v>
+        <v>0.2360716666666667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2510145</v>
+        <v>0.2276456666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2383256666666667</v>
+        <v>0.2158958333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2360716666666667</v>
+        <v>0.1995886666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2338861666666666</v>
+        <v>0.1951353333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2276456666666667</v>
+        <v>0.1947573333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2162578333333333</v>
+        <v>0.188083</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1995886666666667</v>
+        <v>0.1835196666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1947573333333333</v>
+        <v>0.1554191666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1896173333333333</v>
+        <v>0.1527816666666666</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1881645</v>
+        <v>0.1497128333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.188083</v>
+        <v>0.1481786666666667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1835196666666667</v>
+        <v>0.1246443333333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.18161</v>
+        <v>0.1160675</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1784491666666667</v>
+        <v>0.1145451666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1554191666666667</v>
+        <v>0.1019535</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1527816666666666</v>
+        <v>0.1012923333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1481786666666667</v>
+        <v>0.09919766666666666</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1346788333333333</v>
+        <v>0.09807250000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1308565</v>
+        <v>0.09706900000000002</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1246443333333333</v>
+        <v>0.09503150000000002</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1214046666666667</v>
+        <v>0.09373083333333332</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.121232</v>
+        <v>0.09113049999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1145451666666667</v>
+        <v>0.08418699999999998</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1026613333333333</v>
+        <v>0.08329233333333334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1019535</v>
+        <v>0.08199833333333334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1012923333333333</v>
+        <v>0.08041816666666667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.09807250000000001</v>
+        <v>0.07695066666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.09706900000000002</v>
+        <v>0.07295783333333335</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.09503150000000002</v>
+        <v>0.06707933333333332</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.09192683333333335</v>
+        <v>0.0627875</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.08418699999999998</v>
+        <v>0.06131166666666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.08400249999999998</v>
+        <v>0.04964033333333334</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.08199833333333334</v>
+        <v>0.04957016666666667</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.07695066666666667</v>
+        <v>0.04918866666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.07295783333333335</v>
+        <v>0.04838033333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.068579</v>
+        <v>0.04587716666666666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0627875</v>
+        <v>0.0379915</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.06131166666666667</v>
+        <v>0.03766216666666666</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.04957016666666667</v>
+        <v>0.037513</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.04838033333333333</v>
+        <v>0.03719733333333334</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.04587716666666666</v>
+        <v>0.02745599999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.04285116666666665</v>
+        <v>0.02697766666666667</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.03831383333333334</v>
+        <v>0.02534783333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.0379915</v>
+        <v>0.02462483333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.03719733333333334</v>
+        <v>0.02393566666666666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02745599999999999</v>
+        <v>0.02291666666666667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02697766666666667</v>
+        <v>0.02009966666666666</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02534783333333333</v>
+        <v>0.01798016666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.01798016666666667</v>
+        <v>0.01675683333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01675683333333333</v>
+        <v>0.01667133333333333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01667133333333333</v>
+        <v>0.01387066666666667</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.01393466666666666</v>
+        <v>0.0105105</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.01387066666666667</v>
+        <v>0.0105105</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0105105</v>
+        <v>0.01006566666666667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01006566666666667</v>
+        <v>0.009983666666666655</v>
       </c>
     </row>
     <row r="99">

--- a/datamining/final_data/topic5_candidates.xlsx
+++ b/datamining/final_data/topic5_candidates.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9809051666666667</v>
+        <v>0.9560289583333335</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8590908333333334</v>
+        <v>0.8357760416666667</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8508776666666666</v>
+        <v>0.8228070833333334</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8508776666666666</v>
+        <v>0.8228070833333334</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8129698333333334</v>
+        <v>0.7859497916666667</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7923535</v>
+        <v>0.765131875</v>
       </c>
     </row>
     <row r="8">
@@ -506,27 +506,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.751407</v>
+        <v>0.72407875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6120831666666666</v>
+        <v>0.5927575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.607894</v>
+        <v>0.5832339583333334</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.584154</v>
+        <v>0.5600674999999999</v>
       </c>
     </row>
     <row r="12">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.584154</v>
+        <v>0.5600674999999999</v>
       </c>
     </row>
     <row r="13">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5754031666666667</v>
+        <v>0.5523939583333334</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5430886666666667</v>
+        <v>0.5279758333333333</v>
       </c>
     </row>
     <row r="15">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5191245</v>
+        <v>0.494778125</v>
       </c>
     </row>
     <row r="16">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5080825</v>
+        <v>0.489018125</v>
       </c>
     </row>
     <row r="17">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4933718333333333</v>
+        <v>0.4690572916666667</v>
       </c>
     </row>
     <row r="18">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4490385</v>
+        <v>0.428968125</v>
       </c>
     </row>
     <row r="19">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4261573333333333</v>
+        <v>0.3960716666666667</v>
       </c>
     </row>
     <row r="20">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4146400000000001</v>
+        <v>0.3853675000000001</v>
       </c>
     </row>
     <row r="21">
@@ -636,37 +636,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4049796666666667</v>
+        <v>0.3789220833333334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3919530000000001</v>
+        <v>0.3706514583333334</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3801851666666667</v>
+        <v>0.36201875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.379445</v>
+        <v>0.36096125</v>
       </c>
     </row>
     <row r="25">
@@ -676,27 +676,27 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3769796666666667</v>
+        <v>0.3496745833333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('영향', '미치', '것')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3538406666666666</v>
+        <v>0.33223125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('미치', '영향', '분석')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.352441</v>
+        <v>0.3316233333333333</v>
       </c>
     </row>
     <row r="28">
@@ -706,17 +706,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2980931666666666</v>
+        <v>0.2733914583333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2980458333333333</v>
+        <v>0.2719077083333333</v>
       </c>
     </row>
     <row r="30">
@@ -726,47 +726,47 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.293024</v>
+        <v>0.271645</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2883626666666667</v>
+        <v>0.2714247916666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2882921666666666</v>
+        <v>0.2710239583333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', '수')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2859641666666667</v>
+        <v>0.2658783333333334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2785371666666667</v>
+        <v>0.2638252083333333</v>
       </c>
     </row>
     <row r="35">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2764666666666666</v>
+        <v>0.2553433333333333</v>
       </c>
     </row>
     <row r="36">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2752371666666666</v>
+        <v>0.2508139583333334</v>
       </c>
     </row>
     <row r="37">
@@ -796,17 +796,17 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.268908</v>
+        <v>0.24444</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2558396666666667</v>
+        <v>0.239245625</v>
       </c>
     </row>
     <row r="39">
@@ -816,47 +816,47 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2558396666666667</v>
+        <v>0.2391570833333334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2542471666666667</v>
+        <v>0.2391570833333334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2510145</v>
+        <v>0.2257464583333334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2383256666666667</v>
+        <v>0.2209420833333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2360716666666667</v>
+        <v>0.2125670833333333</v>
       </c>
     </row>
     <row r="44">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2276456666666667</v>
+        <v>0.2102970833333334</v>
       </c>
     </row>
     <row r="45">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2158958333333333</v>
+        <v>0.1893672916666667</v>
       </c>
     </row>
     <row r="46">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1995886666666667</v>
+        <v>0.1878633333333333</v>
       </c>
     </row>
     <row r="47">
@@ -896,37 +896,37 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1951353333333333</v>
+        <v>0.1868341666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1947573333333333</v>
+        <v>0.1755070833333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.188083</v>
+        <v>0.1725291666666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1835196666666667</v>
+        <v>0.16577875</v>
       </c>
     </row>
     <row r="51">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1554191666666667</v>
+        <v>0.1451164583333333</v>
       </c>
     </row>
     <row r="52">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1527816666666666</v>
+        <v>0.1433195833333333</v>
       </c>
     </row>
     <row r="53">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1497128333333333</v>
+        <v>0.1377135416666667</v>
       </c>
     </row>
     <row r="54">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1481786666666667</v>
+        <v>0.1329533333333333</v>
       </c>
     </row>
     <row r="55">
@@ -976,67 +976,67 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1246443333333333</v>
+        <v>0.1192129166666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('이', '따르', '논문')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1160675</v>
+        <v>0.1011989583333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1145451666666667</v>
+        <v>0.09721541666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1019535</v>
+        <v>0.09396437499999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1012923333333333</v>
+        <v>0.08613562500000002</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('방법', '평가', '방법')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.09919766666666666</v>
+        <v>0.08521437500000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.09807250000000001</v>
+        <v>0.08472854166666666</v>
       </c>
     </row>
     <row r="62">
@@ -1046,27 +1046,27 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.09706900000000002</v>
+        <v>0.08412375000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.09503150000000002</v>
+        <v>0.08403708333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.09373083333333332</v>
+        <v>0.08309687500000001</v>
       </c>
     </row>
     <row r="65">
@@ -1076,37 +1076,37 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.09113049999999999</v>
+        <v>0.07843062499999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.08418699999999998</v>
+        <v>0.07716541666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('간', '상호', '작용')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.08329233333333334</v>
+        <v>0.06931625</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.08199833333333334</v>
+        <v>0.06734083333333334</v>
       </c>
     </row>
     <row r="69">
@@ -1116,207 +1116,207 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.08041816666666667</v>
+        <v>0.06467020833333334</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.07695066666666667</v>
+        <v>0.05963791666666668</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.07295783333333335</v>
+        <v>0.05835666666666667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.06707933333333332</v>
+        <v>0.05623979166666669</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0627875</v>
+        <v>0.04923208333333334</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.06131166666666667</v>
+        <v>0.04911937499999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.04964033333333334</v>
+        <v>0.04120791666666666</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.04957016666666667</v>
+        <v>0.04084145833333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('전자', '책')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.04918866666666667</v>
+        <v>0.03915020833333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.04838033333333333</v>
+        <v>0.03818333333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.04587716666666666</v>
+        <v>0.032429375</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0379915</v>
+        <v>0.03071770833333334</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.03766216666666666</v>
+        <v>0.03027041666666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서', '사용')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.037513</v>
+        <v>0.02918416666666667</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.03719733333333334</v>
+        <v>0.02792375000000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02745599999999999</v>
+        <v>0.02195458333333334</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02697766666666667</v>
+        <v>0.01980979166666666</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02534783333333333</v>
+        <v>0.01904083333333334</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02462483333333333</v>
+        <v>0.01891958333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신', '윤리')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02393566666666666</v>
+        <v>0.01848499999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('정보', '과학', '영재')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02291666666666667</v>
+        <v>0.01583854166666666</v>
       </c>
     </row>
     <row r="90">
@@ -1326,17 +1326,17 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02009966666666666</v>
+        <v>0.01394708333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01798016666666667</v>
+        <v>0.01270666666666667</v>
       </c>
     </row>
     <row r="92">
@@ -1346,17 +1346,17 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.01675683333333333</v>
+        <v>0.01067104166666666</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01667133333333333</v>
+        <v>0.01006020833333333</v>
       </c>
     </row>
     <row r="94">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01387066666666667</v>
+        <v>0.007310833333333336</v>
       </c>
     </row>
     <row r="95">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0105105</v>
+        <v>0.003690624999999996</v>
       </c>
     </row>
     <row r="96">
@@ -1386,37 +1386,37 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0105105</v>
+        <v>0.003690624999999996</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.01006566666666667</v>
+        <v>0.001922083333333324</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '중독')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.009983666666666655</v>
+        <v>-0.004175624999999995</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.003699500000000001</v>
+        <v>-0.00543041666666666</v>
       </c>
     </row>
     <row r="100">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.001978166666666666</v>
+        <v>-0.008847708333333332</v>
       </c>
     </row>
     <row r="101">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.005321833333333333</v>
+        <v>-0.009539791666666667</v>
       </c>
     </row>
   </sheetData>
